--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD03C9C-7A7C-444F-8186-620F5EFC265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE821670-EC94-4A33-9671-43C2DCE89643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="375" windowWidth="21045" windowHeight="12525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="375" windowWidth="20040" windowHeight="12525" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validate" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>key</t>
   </si>
@@ -184,12 +184,6 @@
     <t>PBLR15</t>
   </si>
   <si>
-    <t>N-Pentane</t>
-  </si>
-  <si>
-    <t>Isobutane</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -323,6 +317,9 @@
   </si>
   <si>
     <t>TCND50</t>
+  </si>
+  <si>
+    <t>N_Butane</t>
   </si>
 </sst>
 </file>
@@ -762,16 +759,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -782,10 +779,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -796,10 +793,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -807,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -815,22 +812,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2FD67-D2C2-404E-A03B-87F5C0523623}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1082,53 +1079,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="8" width="10" customWidth="1"/>
+    <col min="2" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>81.25</v>
+      </c>
+      <c r="C2">
         <v>104.4</v>
-      </c>
-      <c r="C2">
-        <v>81.25</v>
       </c>
       <c r="D2">
         <v>86.94</v>
@@ -1142,19 +1136,16 @@
       <c r="G2">
         <v>101.3</v>
       </c>
-      <c r="H2">
-        <v>127.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>16.96</v>
+      </c>
+      <c r="C3">
         <v>39.82</v>
-      </c>
-      <c r="C3">
-        <v>16.96</v>
       </c>
       <c r="D3">
         <v>18.52</v>
@@ -1168,19 +1159,16 @@
       <c r="G3">
         <v>36.409999999999997</v>
       </c>
-      <c r="H3">
-        <v>61.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>14.93</v>
+      </c>
+      <c r="C4">
         <v>36.630000000000003</v>
-      </c>
-      <c r="C4">
-        <v>14.93</v>
       </c>
       <c r="D4">
         <v>16.010000000000002</v>
@@ -1194,19 +1182,16 @@
       <c r="G4">
         <v>34.29</v>
       </c>
-      <c r="H4">
-        <v>59.41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>5.5910000000000002</v>
+      </c>
+      <c r="C5">
         <v>9.5039999999999996</v>
-      </c>
-      <c r="C5">
-        <v>5.5910000000000002</v>
       </c>
       <c r="D5">
         <v>5.9829999999999997</v>
@@ -1220,19 +1205,16 @@
       <c r="G5">
         <v>24.35</v>
       </c>
-      <c r="H5">
-        <v>47.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="C6">
         <v>12.05</v>
-      </c>
-      <c r="C6">
-        <v>7.6269999999999998</v>
       </c>
       <c r="D6">
         <v>8.1620000000000008</v>
@@ -1246,19 +1228,16 @@
       <c r="G6">
         <v>26.83</v>
       </c>
-      <c r="H6">
-        <v>50.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>9.1</v>
+      </c>
+      <c r="C7">
         <v>14.81</v>
-      </c>
-      <c r="C7">
-        <v>9.1</v>
       </c>
       <c r="D7">
         <v>9.9559999999999995</v>
@@ -1272,19 +1251,16 @@
       <c r="G7">
         <v>28.41</v>
       </c>
-      <c r="H7">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>91.79</v>
+      </c>
+      <c r="C8">
         <v>109.6</v>
-      </c>
-      <c r="C8">
-        <v>91.79</v>
       </c>
       <c r="D8">
         <v>97.52</v>
@@ -1298,19 +1274,16 @@
       <c r="G8">
         <v>92.25</v>
       </c>
-      <c r="H8">
-        <v>97.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>2.3809999999999998</v>
+      </c>
+      <c r="C9">
         <v>2.9580000000000002</v>
-      </c>
-      <c r="C9">
-        <v>2.3809999999999998</v>
       </c>
       <c r="D9">
         <v>2.5470000000000002</v>
@@ -1324,11 +1297,8 @@
       <c r="G9">
         <v>2.9039999999999999</v>
       </c>
-      <c r="H9">
-        <v>3.6890000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1350,24 +1320,21 @@
       <c r="G10">
         <v>50</v>
       </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f>B4-B5</f>
-        <v>27.126000000000005</v>
+        <v>9.3389999999999986</v>
       </c>
       <c r="C11">
         <f>C4-C5</f>
-        <v>9.3389999999999986</v>
+        <v>27.126000000000005</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:H11" si="0">D4-D5</f>
+        <f t="shared" ref="D11:G11" si="0">D4-D5</f>
         <v>10.027000000000001</v>
       </c>
       <c r="E11">
@@ -1381,10 +1348,6 @@
       <c r="G11">
         <f t="shared" si="0"/>
         <v>9.9399999999999977</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>11.759999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1410,21 +1373,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1433,12 +1396,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1447,12 +1410,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1461,12 +1424,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1475,12 +1438,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1489,12 +1452,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1503,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1528,21 +1491,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1582,21 +1545,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2">
         <v>0.01</v>
@@ -1604,10 +1567,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>6.5112546593747069</v>
@@ -1615,10 +1578,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>151.74747299158844</v>
@@ -1626,10 +1589,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2">
         <v>2.5591030152439238</v>
@@ -1637,10 +1600,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2">
         <v>2.1145262959269528</v>
@@ -1648,10 +1611,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2">
         <v>10.746746638323955</v>
@@ -1683,16 +1646,16 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE821670-EC94-4A33-9671-43C2DCE89643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6647EF4C-7128-478C-8D88-DFBFE00B5C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="375" windowWidth="20040" windowHeight="12525" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="2415" windowWidth="18510" windowHeight="12270" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validate" sheetId="8" r:id="rId1"/>
-    <sheet name="Flows" sheetId="2" r:id="rId2"/>
-    <sheet name="Physical Diagram" sheetId="10" r:id="rId3"/>
+    <sheet name="Physical Diagram" sheetId="10" r:id="rId2"/>
+    <sheet name="Flows" sheetId="2" r:id="rId3"/>
     <sheet name="Processes" sheetId="3" r:id="rId4"/>
     <sheet name="Exergy" sheetId="4" r:id="rId5"/>
     <sheet name="Format" sheetId="5" r:id="rId6"/>
@@ -836,111 +836,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2FD67-D2C2-404E-A03B-87F5C0523623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -955,19 +850,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -975,16 +979,16 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -992,16 +996,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1009,16 +1013,16 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1026,16 +1030,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1043,16 +1047,16 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1060,16 +1064,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1081,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1360,7 +1364,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1532,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1562,7 +1566,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6647EF4C-7128-478C-8D88-DFBFE00B5C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B44D8-1A7E-4B8E-B766-40DF04135A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="2415" windowWidth="18510" windowHeight="12270" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="375" windowWidth="17295" windowHeight="12525" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Validate" sheetId="8" r:id="rId1"/>
-    <sheet name="Physical Diagram" sheetId="10" r:id="rId2"/>
+    <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
+    <sheet name="Validate" sheetId="8" r:id="rId2"/>
     <sheet name="Flows" sheetId="2" r:id="rId3"/>
     <sheet name="Processes" sheetId="3" r:id="rId4"/>
     <sheet name="Exergy" sheetId="4" r:id="rId5"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>key</t>
   </si>
@@ -301,9 +301,6 @@
     <t>HYBRID</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>ETAT75</t>
   </si>
   <si>
@@ -320,6 +317,12 @@
   </si>
   <si>
     <t>N_Butane</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>External</t>
   </si>
 </sst>
 </file>
@@ -741,6 +744,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2FD67-D2C2-404E-A03B-87F5C0523623}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CFD158-7212-45C6-8CD6-C008DA9BC38B}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -748,7 +769,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -835,27 +856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2FD67-D2C2-404E-A03B-87F5C0523623}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -954,6 +960,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEFFB12D-400F-425C-816A-64646D9419AF}">
+          <x14:formula1>
+            <xm:f>Validate!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -962,7 +980,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1078,6 +1096,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23B8FFA9-54F1-41AC-BFDE-1647CCF5EF83}">
+          <x14:formula1>
+            <xm:f>Validate!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1106,16 +1136,16 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1482,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1534,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1545,9 +1575,10 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1555,10 +1586,13 @@
         <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1568,8 +1602,11 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1577,10 +1614,13 @@
         <v>76</v>
       </c>
       <c r="C3" s="2">
-        <v>6.5112546593747069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6.51</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1588,10 +1628,13 @@
         <v>76</v>
       </c>
       <c r="C4" s="2">
-        <v>151.74747299158844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>151.75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>151.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1599,10 +1642,13 @@
         <v>76</v>
       </c>
       <c r="C5" s="2">
-        <v>2.5591030152439238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2.56</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1610,10 +1656,13 @@
         <v>76</v>
       </c>
       <c r="C6" s="2">
-        <v>2.1145262959269528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2.11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1621,7 +1670,10 @@
         <v>76</v>
       </c>
       <c r="C7" s="2">
-        <v>10.746746638323955</v>
+        <v>10.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10.75</v>
       </c>
     </row>
   </sheetData>
@@ -1650,16 +1702,16 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/rorc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B44D8-1A7E-4B8E-B766-40DF04135A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{749B44D8-1A7E-4B8E-B766-40DF04135A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA9B455-A5EB-41D4-8E6F-2105BF8A1F36}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="375" windowWidth="17295" windowHeight="12525" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="1755" windowWidth="19695" windowHeight="13635" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Format" sheetId="5" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="6" r:id="rId7"/>
     <sheet name="ResourcesCost" sheetId="7" r:id="rId8"/>
-    <sheet name="ExergyCND" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>key</t>
   </si>
@@ -305,15 +304,6 @@
   </si>
   <si>
     <t>NoIHE</t>
-  </si>
-  <si>
-    <t>TCND35</t>
-  </si>
-  <si>
-    <t>TCND40</t>
-  </si>
-  <si>
-    <t>TCND50</t>
   </si>
   <si>
     <t>N_Butane</t>
@@ -1145,7 +1135,7 @@
         <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1512,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1566,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
@@ -1586,10 +1576,10 @@
         <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1674,249 +1664,6 @@
       </c>
       <c r="D7" s="2">
         <v>10.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021F0E57-ACB9-4F2C-ADE9-1AA431DF986C}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>82.99</v>
-      </c>
-      <c r="C2">
-        <v>89.86</v>
-      </c>
-      <c r="D2">
-        <v>97.69</v>
-      </c>
-      <c r="E2">
-        <v>106.7</v>
-      </c>
-      <c r="F2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>17.32</v>
-      </c>
-      <c r="C3">
-        <v>24.12</v>
-      </c>
-      <c r="D3">
-        <v>31.84</v>
-      </c>
-      <c r="E3">
-        <v>40.68</v>
-      </c>
-      <c r="F3">
-        <v>50.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>15.25</v>
-      </c>
-      <c r="C4">
-        <v>21.66</v>
-      </c>
-      <c r="D4">
-        <v>28.98</v>
-      </c>
-      <c r="E4">
-        <v>37.42</v>
-      </c>
-      <c r="F4">
-        <v>47.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5.7110000000000003</v>
-      </c>
-      <c r="C5">
-        <v>6.67</v>
-      </c>
-      <c r="D5">
-        <v>7.9749999999999996</v>
-      </c>
-      <c r="E5">
-        <v>9.7089999999999996</v>
-      </c>
-      <c r="F5">
-        <v>11.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7.79</v>
-      </c>
-      <c r="C6">
-        <v>8.91</v>
-      </c>
-      <c r="D6">
-        <v>10.39</v>
-      </c>
-      <c r="E6">
-        <v>12.31</v>
-      </c>
-      <c r="F6">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9.2949999999999999</v>
-      </c>
-      <c r="C7">
-        <v>10.84</v>
-      </c>
-      <c r="D7">
-        <v>12.76</v>
-      </c>
-      <c r="E7">
-        <v>15.13</v>
-      </c>
-      <c r="F7">
-        <v>18.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>99.53</v>
-      </c>
-      <c r="C8">
-        <v>105.3</v>
-      </c>
-      <c r="D8">
-        <v>111.8</v>
-      </c>
-      <c r="E8">
-        <v>119.1</v>
-      </c>
-      <c r="F8">
-        <v>127.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2.4319999999999999</v>
-      </c>
-      <c r="C9">
-        <v>2.6120000000000001</v>
-      </c>
-      <c r="D9">
-        <v>2.8079999999999998</v>
-      </c>
-      <c r="E9">
-        <v>3.0219999999999998</v>
-      </c>
-      <c r="F9">
-        <v>3.2559999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>B4-B5</f>
-        <v>9.5389999999999997</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:F11" si="0">C4-C5</f>
-        <v>14.99</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>21.005000000000003</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>27.711000000000002</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>35.25</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/rorc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{749B44D8-1A7E-4B8E-B766-40DF04135A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA9B455-A5EB-41D4-8E6F-2105BF8A1F36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42973350-341E-4801-809B-40C88FACA83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="1755" windowWidth="19695" windowHeight="13635" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -219,12 +219,6 @@
     <t>(J/J)</t>
   </si>
   <si>
-    <t>(c/h)</t>
-  </si>
-  <si>
-    <t>(c/kWh)</t>
-  </si>
-  <si>
     <t>(kW)</t>
   </si>
   <si>
@@ -306,13 +300,19 @@
     <t>NoIHE</t>
   </si>
   <si>
-    <t>N_Butane</t>
-  </si>
-  <si>
     <t>Internal</t>
   </si>
   <si>
     <t>External</t>
+  </si>
+  <si>
+    <t>(c$/h)</t>
+  </si>
+  <si>
+    <t>(c$/kWh)</t>
+  </si>
+  <si>
+    <t>N-Butane</t>
   </si>
 </sst>
 </file>
@@ -770,16 +770,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -790,10 +790,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -804,10 +804,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -828,17 +828,17 @@
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1117,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -1126,16 +1126,16 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1490,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1515,21 +1515,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
@@ -1570,24 +1570,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
         <v>6.51</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2">
         <v>151.75</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2">
         <v>2.56</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2">
         <v>2.11</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2">
         <v>10.75</v>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42973350-341E-4801-809B-40C88FACA83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D3ED5-E996-4A1B-BD3A-A093088AF9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="WasteDefinition" sheetId="6" r:id="rId7"/>
     <sheet name="ResourcesCost" sheetId="7" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>key</t>
   </si>
@@ -177,12 +180,6 @@
     <t>TCND30</t>
   </si>
   <si>
-    <t>TCND45</t>
-  </si>
-  <si>
-    <t>PBLR15</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -294,12 +291,6 @@
     <t>HYBRID</t>
   </si>
   <si>
-    <t>ETAT75</t>
-  </si>
-  <si>
-    <t>NoIHE</t>
-  </si>
-  <si>
     <t>Internal</t>
   </si>
   <si>
@@ -312,7 +303,22 @@
     <t>(c$/kWh)</t>
   </si>
   <si>
-    <t>N-Butane</t>
+    <t>TCND35</t>
+  </si>
+  <si>
+    <t>TCND50</t>
+  </si>
+  <si>
+    <t>TRB75</t>
+  </si>
+  <si>
+    <t>PBLR16</t>
+  </si>
+  <si>
+    <t>IHE60</t>
+  </si>
+  <si>
+    <t>noIHE</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,10 +363,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,6 +449,395 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TCND30"/>
+      <sheetName val="TCND35"/>
+      <sheetName val="TCND50"/>
+      <sheetName val="TRB75"/>
+      <sheetName val="PBLR16"/>
+      <sheetName val="IHE60"/>
+      <sheetName val="noIHE"/>
+      <sheetName val="Exergy"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>82.73</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>17.27</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>15.21</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>5.6929999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>7.766</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>9.266</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>99.23</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>2.4239999999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>49.85</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>key</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>B1</v>
+          </cell>
+          <cell r="G2">
+            <v>82.73</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>B2</v>
+          </cell>
+          <cell r="G3">
+            <v>22.21</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>B3</v>
+          </cell>
+          <cell r="G4">
+            <v>19.940000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>B4</v>
+          </cell>
+          <cell r="G5">
+            <v>6.141</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>B5</v>
+          </cell>
+          <cell r="G6">
+            <v>8.2029999999999994</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>B6</v>
+          </cell>
+          <cell r="G7">
+            <v>9.984</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>QBLR</v>
+          </cell>
+          <cell r="G8">
+            <v>96.96</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>WP</v>
+          </cell>
+          <cell r="G9">
+            <v>2.4039999999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>WN</v>
+          </cell>
+          <cell r="G10">
+            <v>46.03</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>QCND</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="G2">
+            <v>82.73</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>35.979999999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>33.39</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>8.4719999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>10.46</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>12.76</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>90.04</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>2.302</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>35.35</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="G2">
+            <v>82.73</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>17.63</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>15.24</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>5.6929999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>7.766</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>9.4740000000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>98.54</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>2.4239999999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>46.58</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="G2">
+            <v>76.72</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>16.98</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>15.17</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>5.6929999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>7.3120000000000003</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>8.64</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>93.1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>1.893</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>45.77</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="G2">
+            <v>82.73</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>17.27</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>15.59</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>5.6929999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>7.766</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>8.7910000000000004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>2.4239999999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>49.85</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="G2">
+            <v>82.73</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>17.27</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>17.27</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>5.6929999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>7.766</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>7.766</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>106.1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>2.4239999999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>49.85</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,16 +1172,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -790,10 +1192,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -804,10 +1206,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -815,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -823,22 +1225,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1103,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1115,263 +1517,371 @@
     <col min="2" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>65</v>
+    <row r="1" spans="1:8">
+      <c r="A1" t="str">
+        <f>[1]TCND35!A1</f>
+        <v>key</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="str">
+        <f>[1]TCND35!A2</f>
+        <v>B1</v>
       </c>
       <c r="B2">
-        <v>81.25</v>
+        <f>[1]TCND30!G2</f>
+        <v>82.73</v>
       </c>
       <c r="C2">
-        <v>104.4</v>
+        <f>[1]TCND35!G2</f>
+        <v>82.73</v>
       </c>
       <c r="D2">
-        <v>86.94</v>
+        <f>[1]TCND50!G2</f>
+        <v>82.73</v>
       </c>
       <c r="E2">
-        <v>82.39</v>
+        <f>[1]TRB75!G2</f>
+        <v>82.73</v>
       </c>
       <c r="F2">
-        <v>81.25</v>
+        <f>[1]PBLR16!G2</f>
+        <v>76.72</v>
       </c>
       <c r="G2">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>2</v>
+        <f>[1]IHE60!G2</f>
+        <v>82.73</v>
+      </c>
+      <c r="H2">
+        <f>[1]noIHE!G2</f>
+        <v>82.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="str">
+        <f>[1]TCND35!A3</f>
+        <v>B2</v>
       </c>
       <c r="B3">
-        <v>16.96</v>
+        <f>[1]TCND30!G3</f>
+        <v>17.27</v>
       </c>
       <c r="C3">
-        <v>39.82</v>
+        <f>[1]TCND35!G3</f>
+        <v>22.21</v>
       </c>
       <c r="D3">
-        <v>18.52</v>
+        <f>[1]TCND50!G3</f>
+        <v>35.979999999999997</v>
       </c>
       <c r="E3">
-        <v>18.57</v>
+        <f>[1]TRB75!G3</f>
+        <v>17.63</v>
       </c>
       <c r="F3">
-        <v>16.96</v>
+        <f>[1]PBLR16!G3</f>
+        <v>16.98</v>
       </c>
       <c r="G3">
-        <v>36.409999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>3</v>
+        <f>[1]IHE60!G3</f>
+        <v>17.27</v>
+      </c>
+      <c r="H3">
+        <f>[1]noIHE!G3</f>
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="str">
+        <f>[1]TCND35!A4</f>
+        <v>B3</v>
       </c>
       <c r="B4">
-        <v>14.93</v>
+        <f>[1]TCND30!G4</f>
+        <v>15.21</v>
       </c>
       <c r="C4">
-        <v>36.630000000000003</v>
+        <f>[1]TCND35!G4</f>
+        <v>19.940000000000001</v>
       </c>
       <c r="D4">
-        <v>16.010000000000002</v>
+        <f>[1]TCND50!G4</f>
+        <v>33.39</v>
       </c>
       <c r="E4">
-        <v>16.670000000000002</v>
+        <f>[1]TRB75!G4</f>
+        <v>15.24</v>
       </c>
       <c r="F4">
-        <v>16.96</v>
+        <f>[1]PBLR16!G4</f>
+        <v>15.17</v>
       </c>
       <c r="G4">
-        <v>34.29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>4</v>
+        <f>[1]IHE60!G4</f>
+        <v>15.59</v>
+      </c>
+      <c r="H4">
+        <f>[1]noIHE!G4</f>
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="str">
+        <f>[1]TCND35!A5</f>
+        <v>B4</v>
       </c>
       <c r="B5">
-        <v>5.5910000000000002</v>
+        <f>[1]TCND30!G5</f>
+        <v>5.6929999999999996</v>
       </c>
       <c r="C5">
-        <v>9.5039999999999996</v>
+        <f>[1]TCND35!G5</f>
+        <v>6.141</v>
       </c>
       <c r="D5">
-        <v>5.9829999999999997</v>
+        <f>[1]TCND50!G5</f>
+        <v>8.4719999999999995</v>
       </c>
       <c r="E5">
-        <v>6.2610000000000001</v>
+        <f>[1]TRB75!G5</f>
+        <v>5.6929999999999996</v>
       </c>
       <c r="F5">
-        <v>5.5910000000000002</v>
+        <f>[1]PBLR16!G5</f>
+        <v>5.6929999999999996</v>
       </c>
       <c r="G5">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>5</v>
+        <f>[1]IHE60!G5</f>
+        <v>5.6929999999999996</v>
+      </c>
+      <c r="H5">
+        <f>[1]noIHE!G5</f>
+        <v>5.6929999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="str">
+        <f>[1]TCND35!A6</f>
+        <v>B5</v>
       </c>
       <c r="B6">
-        <v>7.6269999999999998</v>
+        <f>[1]TCND30!G6</f>
+        <v>7.766</v>
       </c>
       <c r="C6">
-        <v>12.05</v>
+        <f>[1]TCND35!G6</f>
+        <v>8.2029999999999994</v>
       </c>
       <c r="D6">
-        <v>8.1620000000000008</v>
+        <f>[1]TCND50!G6</f>
+        <v>10.46</v>
       </c>
       <c r="E6">
-        <v>7.9169999999999998</v>
+        <f>[1]TRB75!G6</f>
+        <v>7.766</v>
       </c>
       <c r="F6">
-        <v>7.6269999999999998</v>
+        <f>[1]PBLR16!G6</f>
+        <v>7.3120000000000003</v>
       </c>
       <c r="G6">
-        <v>26.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>6</v>
+        <f>[1]IHE60!G6</f>
+        <v>7.766</v>
+      </c>
+      <c r="H6">
+        <f>[1]noIHE!G6</f>
+        <v>7.766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="str">
+        <f>[1]TCND35!A7</f>
+        <v>B6</v>
       </c>
       <c r="B7">
-        <v>9.1</v>
+        <f>[1]TCND30!G7</f>
+        <v>9.266</v>
       </c>
       <c r="C7">
-        <v>14.81</v>
+        <f>[1]TCND35!G7</f>
+        <v>9.984</v>
       </c>
       <c r="D7">
-        <v>9.9559999999999995</v>
+        <f>[1]TCND50!G7</f>
+        <v>12.76</v>
       </c>
       <c r="E7">
-        <v>9.3160000000000007</v>
+        <f>[1]TRB75!G7</f>
+        <v>9.4740000000000002</v>
       </c>
       <c r="F7">
-        <v>7.6269999999999998</v>
+        <f>[1]PBLR16!G7</f>
+        <v>8.64</v>
       </c>
       <c r="G7">
-        <v>28.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>7</v>
+        <f>[1]IHE60!G7</f>
+        <v>8.7910000000000004</v>
+      </c>
+      <c r="H7">
+        <f>[1]noIHE!G7</f>
+        <v>7.766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="str">
+        <f>[1]TCND35!A8</f>
+        <v>QBLR</v>
       </c>
       <c r="B8">
-        <v>91.79</v>
+        <f>[1]TCND30!G8</f>
+        <v>99.23</v>
       </c>
       <c r="C8">
-        <v>109.6</v>
+        <f>[1]TCND35!G8</f>
+        <v>96.96</v>
       </c>
       <c r="D8">
-        <v>97.52</v>
+        <f>[1]TCND50!G8</f>
+        <v>90.04</v>
       </c>
       <c r="E8">
-        <v>93.61</v>
+        <f>[1]TRB75!G8</f>
+        <v>98.54</v>
       </c>
       <c r="F8">
-        <v>98.29</v>
+        <f>[1]PBLR16!G8</f>
+        <v>93.1</v>
       </c>
       <c r="G8">
-        <v>92.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>8</v>
+        <f>[1]IHE60!G8</f>
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <f>[1]noIHE!G8</f>
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="str">
+        <f>[1]TCND35!A9</f>
+        <v>WP</v>
       </c>
       <c r="B9">
-        <v>2.3809999999999998</v>
+        <f>[1]TCND30!G9</f>
+        <v>2.4239999999999999</v>
       </c>
       <c r="C9">
-        <v>2.9580000000000002</v>
+        <f>[1]TCND35!G9</f>
+        <v>2.4039999999999999</v>
       </c>
       <c r="D9">
-        <v>2.5470000000000002</v>
+        <f>[1]TCND50!G9</f>
+        <v>2.302</v>
       </c>
       <c r="E9">
-        <v>1.9359999999999999</v>
+        <f>[1]TRB75!G9</f>
+        <v>2.4239999999999999</v>
       </c>
       <c r="F9">
-        <v>2.3809999999999998</v>
+        <f>[1]PBLR16!G9</f>
+        <v>1.893</v>
       </c>
       <c r="G9">
-        <v>2.9039999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>9</v>
+        <f>[1]IHE60!G9</f>
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="H9">
+        <f>[1]noIHE!G9</f>
+        <v>2.4239999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="str">
+        <f>[1]TCND35!A10</f>
+        <v>WN</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <f>[1]TCND30!G10</f>
+        <v>49.85</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <f>[1]TCND35!G10</f>
+        <v>46.03</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <f>[1]TCND50!G10</f>
+        <v>35.35</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <f>[1]TRB75!G10</f>
+        <v>46.58</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <f>[1]PBLR16!G10</f>
+        <v>45.77</v>
       </c>
       <c r="G10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>10</v>
+        <f>[1]IHE60!G10</f>
+        <v>49.85</v>
+      </c>
+      <c r="H10">
+        <f>[1]noIHE!G10</f>
+        <v>49.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="str">
+        <f>[1]TCND35!A11</f>
+        <v>QCND</v>
       </c>
       <c r="B11">
         <f>B4-B5</f>
-        <v>9.3389999999999986</v>
+        <v>9.5170000000000012</v>
       </c>
       <c r="C11">
-        <f>C4-C5</f>
-        <v>27.126000000000005</v>
+        <f t="shared" ref="C11:H11" si="0">C4-C5</f>
+        <v>13.799000000000001</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:G11" si="0">D4-D5</f>
-        <v>10.027000000000001</v>
+        <f t="shared" si="0"/>
+        <v>24.917999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>10.409000000000002</v>
+        <v>9.5470000000000006</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>11.369</v>
+        <v>9.4770000000000003</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>9.9399999999999977</v>
+        <v>9.8970000000000002</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>11.577</v>
       </c>
     </row>
   </sheetData>
@@ -1383,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1396,101 +1906,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>48</v>
+      <c r="A2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>49</v>
+      <c r="A3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>50</v>
+      <c r="A4" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>51</v>
+      <c r="A5" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>52</v>
+      <c r="A6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>53</v>
+      <c r="A7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1515,21 +2025,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1570,24 +2080,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1598,10 +2108,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2">
         <v>6.51</v>
@@ -1612,10 +2122,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2">
         <v>151.75</v>
@@ -1626,10 +2136,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2">
         <v>2.56</v>
@@ -1640,10 +2150,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2">
         <v>2.11</v>
@@ -1654,10 +2164,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2">
         <v>10.75</v>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D3ED5-E996-4A1B-BD3A-A093088AF9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D13E7-8D8E-4D8C-9A5B-ED19FDB6C951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -841,9 +841,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -881,7 +881,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -987,7 +987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1129,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1893,7 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2066,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2086,10 +2086,10 @@
         <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2099,11 +2099,11 @@
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Master Eficiencia Energética/Master 2024/Ejemplo ORC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D13E7-8D8E-4D8C-9A5B-ED19FDB6C951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{D15D13E7-8D8E-4D8C-9A5B-ED19FDB6C951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36784007-AECE-4E80-82F9-E218876AB7CE}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="4035" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="WasteDefinition" sheetId="6" r:id="rId7"/>
     <sheet name="ResourcesCost" sheetId="7" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>key</t>
   </si>
@@ -177,9 +174,6 @@
     <t>DISSIPATIVE</t>
   </si>
   <si>
-    <t>TCND30</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -303,22 +297,19 @@
     <t>(c$/kWh)</t>
   </si>
   <si>
-    <t>TCND35</t>
-  </si>
-  <si>
-    <t>TCND50</t>
-  </si>
-  <si>
     <t>TRB75</t>
   </si>
   <si>
-    <t>PBLR16</t>
-  </si>
-  <si>
-    <t>IHE60</t>
-  </si>
-  <si>
     <t>noIHE</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>PBLR18</t>
+  </si>
+  <si>
+    <t>PCND2</t>
   </si>
 </sst>
 </file>
@@ -449,395 +440,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="TCND30"/>
-      <sheetName val="TCND35"/>
-      <sheetName val="TCND50"/>
-      <sheetName val="TRB75"/>
-      <sheetName val="PBLR16"/>
-      <sheetName val="IHE60"/>
-      <sheetName val="noIHE"/>
-      <sheetName val="Exergy"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>82.73</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>17.27</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>15.21</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>5.6929999999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>7.766</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>9.266</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>99.23</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>2.4239999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>49.85</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>key</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>B1</v>
-          </cell>
-          <cell r="G2">
-            <v>82.73</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>B2</v>
-          </cell>
-          <cell r="G3">
-            <v>22.21</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>B3</v>
-          </cell>
-          <cell r="G4">
-            <v>19.940000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>B4</v>
-          </cell>
-          <cell r="G5">
-            <v>6.141</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>B5</v>
-          </cell>
-          <cell r="G6">
-            <v>8.2029999999999994</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>B6</v>
-          </cell>
-          <cell r="G7">
-            <v>9.984</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>QBLR</v>
-          </cell>
-          <cell r="G8">
-            <v>96.96</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>WP</v>
-          </cell>
-          <cell r="G9">
-            <v>2.4039999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>WN</v>
-          </cell>
-          <cell r="G10">
-            <v>46.03</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>QCND</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="G2">
-            <v>82.73</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>35.979999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>33.39</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>8.4719999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>10.46</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>12.76</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>90.04</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>2.302</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>35.35</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="G2">
-            <v>82.73</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>17.63</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>15.24</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>5.6929999999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>7.766</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>9.4740000000000002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>98.54</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>2.4239999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>46.58</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="G2">
-            <v>76.72</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>16.98</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>15.17</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>5.6929999999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>7.3120000000000003</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>8.64</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>93.1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>1.893</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>45.77</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="G2">
-            <v>82.73</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>17.27</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>15.59</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>5.6929999999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>7.766</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>8.7910000000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>2.4239999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>49.85</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="G2">
-            <v>82.73</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>17.27</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>17.27</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>5.6929999999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>7.766</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>7.766</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>106.1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>2.4239999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>49.85</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,16 +774,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1192,10 +794,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1206,10 +808,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1217,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1225,22 +827,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1505,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1517,371 +1119,229 @@
     <col min="2" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="str">
-        <f>[1]TCND35!A1</f>
-        <v>key</v>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
         <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="str">
-        <f>[1]TCND35!A2</f>
-        <v>B1</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <f>[1]TCND30!G2</f>
-        <v>82.73</v>
+        <v>83.57</v>
       </c>
       <c r="C2">
-        <f>[1]TCND35!G2</f>
-        <v>82.73</v>
+        <v>83.57</v>
       </c>
       <c r="D2">
-        <f>[1]TCND50!G2</f>
-        <v>82.73</v>
+        <v>83.93</v>
       </c>
       <c r="E2">
-        <f>[1]TRB75!G2</f>
-        <v>82.73</v>
+        <v>87.64</v>
       </c>
       <c r="F2">
-        <f>[1]PBLR16!G2</f>
-        <v>76.72</v>
-      </c>
-      <c r="G2">
-        <f>[1]IHE60!G2</f>
-        <v>82.73</v>
-      </c>
-      <c r="H2">
-        <f>[1]noIHE!G2</f>
-        <v>82.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="str">
-        <f>[1]TCND35!A3</f>
-        <v>B2</v>
+        <v>89.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <f>[1]TCND30!G3</f>
-        <v>17.27</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C3">
-        <f>[1]TCND35!G3</f>
-        <v>22.21</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D3">
-        <f>[1]TCND50!G3</f>
-        <v>35.979999999999997</v>
+        <v>18.46</v>
       </c>
       <c r="E3">
-        <f>[1]TRB75!G3</f>
-        <v>17.63</v>
+        <v>21.92</v>
       </c>
       <c r="F3">
-        <f>[1]PBLR16!G3</f>
-        <v>16.98</v>
-      </c>
-      <c r="G3">
-        <f>[1]IHE60!G3</f>
-        <v>17.27</v>
-      </c>
-      <c r="H3">
-        <f>[1]noIHE!G3</f>
-        <v>17.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="str">
-        <f>[1]TCND35!A4</f>
-        <v>B3</v>
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <f>[1]TCND30!G4</f>
-        <v>15.21</v>
+        <v>15.79</v>
       </c>
       <c r="C4">
-        <f>[1]TCND35!G4</f>
-        <v>19.940000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D4">
-        <f>[1]TCND50!G4</f>
-        <v>33.39</v>
+        <v>16.39</v>
       </c>
       <c r="E4">
-        <f>[1]TRB75!G4</f>
-        <v>15.24</v>
+        <v>19.59</v>
       </c>
       <c r="F4">
-        <f>[1]PBLR16!G4</f>
-        <v>15.17</v>
-      </c>
-      <c r="G4">
-        <f>[1]IHE60!G4</f>
-        <v>15.59</v>
-      </c>
-      <c r="H4">
-        <f>[1]noIHE!G4</f>
-        <v>17.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="str">
-        <f>[1]TCND35!A5</f>
-        <v>B4</v>
+        <v>16.940000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <f>[1]TCND30!G5</f>
-        <v>5.6929999999999996</v>
+        <v>5.7839999999999998</v>
       </c>
       <c r="C5">
-        <f>[1]TCND35!G5</f>
-        <v>6.141</v>
+        <v>5.7839999999999998</v>
       </c>
       <c r="D5">
-        <f>[1]TCND50!G5</f>
-        <v>8.4719999999999995</v>
+        <v>6.0110000000000001</v>
       </c>
       <c r="E5">
-        <f>[1]TRB75!G5</f>
-        <v>5.6929999999999996</v>
+        <v>6.34</v>
       </c>
       <c r="F5">
-        <f>[1]PBLR16!G5</f>
-        <v>5.6929999999999996</v>
-      </c>
-      <c r="G5">
-        <f>[1]IHE60!G5</f>
-        <v>5.6929999999999996</v>
-      </c>
-      <c r="H5">
-        <f>[1]noIHE!G5</f>
-        <v>5.6929999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="str">
-        <f>[1]TCND35!A6</f>
-        <v>B5</v>
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <f>[1]TCND30!G6</f>
-        <v>7.766</v>
+        <v>7.8769999999999998</v>
       </c>
       <c r="C6">
-        <f>[1]TCND35!G6</f>
-        <v>8.2029999999999994</v>
+        <v>7.8769999999999998</v>
       </c>
       <c r="D6">
-        <f>[1]TCND50!G6</f>
-        <v>10.46</v>
+        <v>7.9480000000000004</v>
       </c>
       <c r="E6">
-        <f>[1]TRB75!G6</f>
-        <v>7.766</v>
+        <v>8.5280000000000005</v>
       </c>
       <c r="F6">
-        <f>[1]PBLR16!G6</f>
-        <v>7.3120000000000003</v>
-      </c>
-      <c r="G6">
-        <f>[1]IHE60!G6</f>
-        <v>7.766</v>
-      </c>
-      <c r="H6">
-        <f>[1]noIHE!G6</f>
-        <v>7.766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="str">
-        <f>[1]TCND35!A7</f>
-        <v>B6</v>
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <f>[1]TCND30!G7</f>
-        <v>9.266</v>
+        <v>9.42</v>
       </c>
       <c r="C7">
-        <f>[1]TCND35!G7</f>
-        <v>9.984</v>
+        <v>7.8769999999999998</v>
       </c>
       <c r="D7">
-        <f>[1]TCND50!G7</f>
-        <v>12.76</v>
+        <v>9.4710000000000001</v>
       </c>
       <c r="E7">
-        <f>[1]TRB75!G7</f>
-        <v>9.4740000000000002</v>
+        <v>10.33</v>
       </c>
       <c r="F7">
-        <f>[1]PBLR16!G7</f>
-        <v>8.64</v>
-      </c>
-      <c r="G7">
-        <f>[1]IHE60!G7</f>
-        <v>8.7910000000000004</v>
-      </c>
-      <c r="H7">
-        <f>[1]noIHE!G7</f>
-        <v>7.766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="str">
-        <f>[1]TCND35!A8</f>
-        <v>QBLR</v>
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <f>[1]TCND30!G8</f>
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <f>[1]TCND35!G8</f>
-        <v>96.96</v>
+        <v>106.9</v>
       </c>
       <c r="D8">
-        <f>[1]TCND50!G8</f>
-        <v>90.04</v>
+        <v>100.8</v>
       </c>
       <c r="E8">
-        <f>[1]TRB75!G8</f>
-        <v>98.54</v>
+        <v>103.5</v>
       </c>
       <c r="F8">
-        <f>[1]PBLR16!G8</f>
-        <v>93.1</v>
-      </c>
-      <c r="G8">
-        <f>[1]IHE60!G8</f>
-        <v>101</v>
-      </c>
-      <c r="H8">
-        <f>[1]noIHE!G8</f>
-        <v>106.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="str">
-        <f>[1]TCND35!A9</f>
-        <v>WP</v>
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
-        <f>[1]TCND30!G9</f>
-        <v>2.4239999999999999</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="C9">
-        <f>[1]TCND35!G9</f>
-        <v>2.4039999999999999</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="D9">
-        <f>[1]TCND50!G9</f>
-        <v>2.302</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="E9">
-        <f>[1]TRB75!G9</f>
-        <v>2.4239999999999999</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="F9">
-        <f>[1]PBLR16!G9</f>
-        <v>1.893</v>
-      </c>
-      <c r="G9">
-        <f>[1]IHE60!G9</f>
-        <v>2.4239999999999999</v>
-      </c>
-      <c r="H9">
-        <f>[1]noIHE!G9</f>
-        <v>2.4239999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="str">
-        <f>[1]TCND35!A10</f>
-        <v>WN</v>
+        <v>2.6190000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
-        <f>[1]TCND30!G10</f>
-        <v>49.85</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <f>[1]TCND35!G10</f>
-        <v>46.03</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <f>[1]TCND50!G10</f>
-        <v>35.35</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <f>[1]TRB75!G10</f>
-        <v>46.58</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <f>[1]PBLR16!G10</f>
-        <v>45.77</v>
-      </c>
-      <c r="G10">
-        <f>[1]IHE60!G10</f>
-        <v>49.85</v>
-      </c>
-      <c r="H10">
-        <f>[1]noIHE!G10</f>
-        <v>49.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="str">
-        <f>[1]TCND35!A11</f>
-        <v>QCND</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <f>B4-B5</f>
-        <v>9.5170000000000012</v>
+        <v>10.006</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:H11" si="0">C4-C5</f>
-        <v>13.799000000000001</v>
+        <f t="shared" ref="C11:F11" si="0">C4-C5</f>
+        <v>12.116</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>24.917999999999999</v>
+        <v>10.379000000000001</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>9.5470000000000006</v>
+        <v>13.25</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>9.4770000000000003</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>9.8970000000000002</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>11.577</v>
+        <v>10.75</v>
       </c>
     </row>
   </sheetData>
@@ -1907,21 +1367,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1930,12 +1390,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1944,12 +1404,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1958,12 +1418,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1972,12 +1432,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1986,12 +1446,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2000,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2025,21 +1485,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2066,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2080,24 +1540,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -2108,10 +1568,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2">
         <v>6.51</v>
@@ -2122,10 +1582,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2">
         <v>151.75</v>
@@ -2136,10 +1596,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
         <v>2.56</v>
@@ -2150,10 +1610,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2">
         <v>2.11</v>
@@ -2164,10 +1624,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2">
         <v>10.75</v>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Master Eficiencia Energética/Master 2024/Ejemplo ORC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{D15D13E7-8D8E-4D8C-9A5B-ED19FDB6C951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36784007-AECE-4E80-82F9-E218876AB7CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C90F54-CCA4-442D-8004-C540BC86D073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4035" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="375" windowWidth="20475" windowHeight="12525" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -748,7 +748,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -766,13 +766,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -786,7 +786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -814,7 +814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -822,7 +822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -830,17 +830,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>80</v>
       </c>
@@ -858,13 +858,13 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -880,7 +880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -888,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -904,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -912,7 +912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -920,7 +920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -928,7 +928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -936,7 +936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -944,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -977,7 +977,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -986,7 +986,7 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1109,17 +1109,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>2.6190000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +1357,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -1365,7 +1365,7 @@
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1472,18 +1472,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1530,7 +1530,7 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1538,7 +1538,7 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>151.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C90F54-CCA4-442D-8004-C540BC86D073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08763B6C-3AAA-434C-B7B9-4F9A94910F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="375" windowWidth="20475" windowHeight="12525" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>key</t>
   </si>
@@ -75,25 +75,127 @@
     <t>QCND</t>
   </si>
   <si>
+    <t>INTERNAL</t>
+  </si>
+  <si>
+    <t>RESOURCE</t>
+  </si>
+  <si>
+    <t>INTERNAL</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>WASTE</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Steam Generator</t>
+  </si>
+  <si>
+    <t>Turbine</t>
+  </si>
+  <si>
+    <t>Internal Heat Exchanger</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Condenser</t>
+  </si>
+  <si>
+    <t>B1-B2</t>
+  </si>
+  <si>
+    <t>B2-B3</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>B3-B4</t>
+  </si>
+  <si>
+    <t>B1-B6</t>
+  </si>
+  <si>
+    <t>WN+WP</t>
+  </si>
+  <si>
+    <t>B6-B5</t>
+  </si>
+  <si>
+    <t>B5-B4</t>
+  </si>
+  <si>
+    <t>PRODUCTIVE</t>
+  </si>
+  <si>
+    <t>DISSIPATIVE</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>EXERGY</t>
+  </si>
+  <si>
+    <t>EXERGY_COST</t>
+  </si>
+  <si>
+    <t>EXERGY_UNIT_COST</t>
+  </si>
+  <si>
+    <t>GENERALIZED_COST</t>
+  </si>
+  <si>
+    <t>GENERALIZED_UNIT_COST</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>(J/J)</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>QCND</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>INTERNAL</t>
-  </si>
-  <si>
-    <t>RESOURCE</t>
-  </si>
-  <si>
-    <t>INTERNAL</t>
-  </si>
-  <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
-    <t>WASTE</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>RESOURCES</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>QBLR</t>
   </si>
   <si>
     <t>BLR</t>
@@ -111,144 +213,6 @@
     <t>CND</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Steam Generator</t>
-  </si>
-  <si>
-    <t>Turbine</t>
-  </si>
-  <si>
-    <t>Internal Heat Exchanger</t>
-  </si>
-  <si>
-    <t>Pump</t>
-  </si>
-  <si>
-    <t>Condenser</t>
-  </si>
-  <si>
-    <t>fuel</t>
-  </si>
-  <si>
-    <t>QBLR</t>
-  </si>
-  <si>
-    <t>B1-B2</t>
-  </si>
-  <si>
-    <t>B2-B3</t>
-  </si>
-  <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>B3-B4</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>B1-B6</t>
-  </si>
-  <si>
-    <t>WN+WP</t>
-  </si>
-  <si>
-    <t>B6-B5</t>
-  </si>
-  <si>
-    <t>B5-B4</t>
-  </si>
-  <si>
-    <t>QCND</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>PRODUCTIVE</t>
-  </si>
-  <si>
-    <t>DISSIPATIVE</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>EXERGY</t>
-  </si>
-  <si>
-    <t>EXERGY_COST</t>
-  </si>
-  <si>
-    <t>EXERGY_UNIT_COST</t>
-  </si>
-  <si>
-    <t>GENERALIZED_COST</t>
-  </si>
-  <si>
-    <t>GENERALIZED_UNIT_COST</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>(kW)</t>
-  </si>
-  <si>
-    <t>(J/J)</t>
-  </si>
-  <si>
-    <t>(kW)</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>QCND</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>RESOURCES</t>
-  </si>
-  <si>
-    <t>recycle</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>QBLR</t>
-  </si>
-  <si>
-    <t>BLR</t>
-  </si>
-  <si>
-    <t>TRB</t>
-  </si>
-  <si>
-    <t>IHE</t>
-  </si>
-  <si>
-    <t>PMP</t>
-  </si>
-  <si>
-    <t>CND</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -310,13 +274,64 @@
   </si>
   <si>
     <t>PCND2</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>BLR_P1</t>
+  </si>
+  <si>
+    <t>TRB_F1</t>
+  </si>
+  <si>
+    <t>IHE_F1</t>
+  </si>
+  <si>
+    <t>CND_F1</t>
+  </si>
+  <si>
+    <t>PMP_P1</t>
+  </si>
+  <si>
+    <t>IHE_P1</t>
+  </si>
+  <si>
+    <t>ENV_R1</t>
+  </si>
+  <si>
+    <t>TRB_P1</t>
+  </si>
+  <si>
+    <t>CND_P1</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>BLR_F1</t>
+  </si>
+  <si>
+    <t>PMP_F1</t>
+  </si>
+  <si>
+    <t>ENV_O1</t>
+  </si>
+  <si>
+    <t>ENV_W1</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -748,7 +763,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -766,83 +781,83 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -852,104 +867,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -977,115 +1059,115 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1109,37 +1191,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1241,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1261,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1281,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1301,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1321,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1341,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1361,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1381,7 @@
         <v>2.6190000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +1439,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -1365,23 +1447,23 @@
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1390,12 +1472,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1404,12 +1486,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1418,12 +1500,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1432,12 +1514,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1446,12 +1528,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1460,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1476,30 +1558,30 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1526,11 +1608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1538,26 +1620,26 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1566,12 +1648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>6.51</v>
@@ -1580,12 +1662,12 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2">
         <v>151.75</v>
@@ -1594,12 +1676,12 @@
         <v>151.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>2.56</v>
@@ -1608,12 +1690,12 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>2.11</v>
@@ -1622,12 +1704,12 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2">
         <v>10.75</v>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08763B6C-3AAA-434C-B7B9-4F9A94910F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6B368C-440F-4F53-8795-DBACAE5638F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="1800" windowWidth="21600" windowHeight="13335" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>key</t>
   </si>
@@ -63,141 +63,129 @@
     <t>B6</t>
   </si>
   <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>INTERNAL</t>
+  </si>
+  <si>
+    <t>RESOURCE</t>
+  </si>
+  <si>
+    <t>INTERNAL</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>WASTE</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Steam Generator</t>
+  </si>
+  <si>
+    <t>Turbine</t>
+  </si>
+  <si>
+    <t>Internal Heat Exchanger</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Condenser</t>
+  </si>
+  <si>
+    <t>B1-B2</t>
+  </si>
+  <si>
+    <t>B2-B3</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>B3-B4</t>
+  </si>
+  <si>
+    <t>B1-B6</t>
+  </si>
+  <si>
+    <t>WN+WP</t>
+  </si>
+  <si>
+    <t>B6-B5</t>
+  </si>
+  <si>
+    <t>B5-B4</t>
+  </si>
+  <si>
+    <t>PRODUCTIVE</t>
+  </si>
+  <si>
+    <t>DISSIPATIVE</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>EXERGY</t>
+  </si>
+  <si>
+    <t>EXERGY_COST</t>
+  </si>
+  <si>
+    <t>EXERGY_UNIT_COST</t>
+  </si>
+  <si>
+    <t>GENERALIZED_COST</t>
+  </si>
+  <si>
+    <t>GENERALIZED_UNIT_COST</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>(J/J)</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>QCND</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>RESOURCES</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
     <t>QBLR</t>
   </si>
   <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>WN</t>
-  </si>
-  <si>
-    <t>QCND</t>
-  </si>
-  <si>
-    <t>INTERNAL</t>
-  </si>
-  <si>
-    <t>RESOURCE</t>
-  </si>
-  <si>
-    <t>INTERNAL</t>
-  </si>
-  <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
-    <t>WASTE</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Steam Generator</t>
-  </si>
-  <si>
-    <t>Turbine</t>
-  </si>
-  <si>
-    <t>Internal Heat Exchanger</t>
-  </si>
-  <si>
-    <t>Pump</t>
-  </si>
-  <si>
-    <t>Condenser</t>
-  </si>
-  <si>
-    <t>B1-B2</t>
-  </si>
-  <si>
-    <t>B2-B3</t>
-  </si>
-  <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>B3-B4</t>
-  </si>
-  <si>
-    <t>B1-B6</t>
-  </si>
-  <si>
-    <t>WN+WP</t>
-  </si>
-  <si>
-    <t>B6-B5</t>
-  </si>
-  <si>
-    <t>B5-B4</t>
-  </si>
-  <si>
-    <t>PRODUCTIVE</t>
-  </si>
-  <si>
-    <t>DISSIPATIVE</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>EXERGY</t>
-  </si>
-  <si>
-    <t>EXERGY_COST</t>
-  </si>
-  <si>
-    <t>EXERGY_UNIT_COST</t>
-  </si>
-  <si>
-    <t>GENERALIZED_COST</t>
-  </si>
-  <si>
-    <t>GENERALIZED_UNIT_COST</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>(kW)</t>
-  </si>
-  <si>
-    <t>(J/J)</t>
-  </si>
-  <si>
-    <t>(kW)</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>QCND</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>RESOURCES</t>
-  </si>
-  <si>
-    <t>recycle</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>QBLR</t>
-  </si>
-  <si>
     <t>BLR</t>
   </si>
   <si>
@@ -213,9 +201,6 @@
     <t>CND</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>FLOW</t>
   </si>
   <si>
@@ -276,55 +261,10 @@
     <t>PCND2</t>
   </si>
   <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>BLR_P1</t>
-  </si>
-  <si>
-    <t>TRB_F1</t>
-  </si>
-  <si>
-    <t>IHE_F1</t>
-  </si>
-  <si>
-    <t>CND_F1</t>
-  </si>
-  <si>
-    <t>PMP_P1</t>
-  </si>
-  <si>
-    <t>IHE_P1</t>
-  </si>
-  <si>
-    <t>ENV_R1</t>
-  </si>
-  <si>
-    <t>TRB_P1</t>
-  </si>
-  <si>
-    <t>CND_P1</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>BLR_F1</t>
-  </si>
-  <si>
-    <t>PMP_F1</t>
-  </si>
-  <si>
-    <t>ENV_O1</t>
-  </si>
-  <si>
-    <t>ENV_W1</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Product</t>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
 </sst>
 </file>
@@ -789,75 +729,75 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -867,187 +807,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEFFB12D-400F-425C-816A-64646D9419AF}">
-          <x14:formula1>
-            <xm:f>Validate!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1056,7 +917,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1070,104 +931,104 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1192,13 +1053,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1206,30 +1067,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" t="str">
+        <f>Flows!A2</f>
+        <v>B1</v>
       </c>
       <c r="B2">
         <v>83.57</v>
       </c>
       <c r="C2">
-        <v>83.57</v>
+        <v>89.43</v>
       </c>
       <c r="D2">
         <v>83.93</v>
@@ -1238,18 +1100,19 @@
         <v>87.64</v>
       </c>
       <c r="F2">
-        <v>89.43</v>
+        <v>83.57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" t="str">
+        <f>Flows!A3</f>
+        <v>B2</v>
       </c>
       <c r="B3">
         <v>17.899999999999999</v>
       </c>
       <c r="C3">
-        <v>17.899999999999999</v>
+        <v>19.54</v>
       </c>
       <c r="D3">
         <v>18.46</v>
@@ -1258,18 +1121,19 @@
         <v>21.92</v>
       </c>
       <c r="F3">
-        <v>19.54</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" t="str">
+        <f>Flows!A4</f>
+        <v>B3</v>
       </c>
       <c r="B4">
         <v>15.79</v>
       </c>
       <c r="C4">
-        <v>17.899999999999999</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="D4">
         <v>16.39</v>
@@ -1278,18 +1142,19 @@
         <v>19.59</v>
       </c>
       <c r="F4">
-        <v>16.940000000000001</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" t="str">
+        <f>Flows!A5</f>
+        <v>B4</v>
       </c>
       <c r="B5">
         <v>5.7839999999999998</v>
       </c>
       <c r="C5">
-        <v>5.7839999999999998</v>
+        <v>6.19</v>
       </c>
       <c r="D5">
         <v>6.0110000000000001</v>
@@ -1298,18 +1163,19 @@
         <v>6.34</v>
       </c>
       <c r="F5">
-        <v>6.19</v>
+        <v>5.7839999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" t="str">
+        <f>Flows!A6</f>
+        <v>B5</v>
       </c>
       <c r="B6">
         <v>7.8769999999999998</v>
       </c>
       <c r="C6">
-        <v>7.8769999999999998</v>
+        <v>8.43</v>
       </c>
       <c r="D6">
         <v>7.9480000000000004</v>
@@ -1318,18 +1184,19 @@
         <v>8.5280000000000005</v>
       </c>
       <c r="F6">
-        <v>8.43</v>
+        <v>7.8769999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" t="str">
+        <f>Flows!A7</f>
+        <v>B6</v>
       </c>
       <c r="B7">
         <v>9.42</v>
       </c>
       <c r="C7">
-        <v>7.8769999999999998</v>
+        <v>10.31</v>
       </c>
       <c r="D7">
         <v>9.4710000000000001</v>
@@ -1338,18 +1205,19 @@
         <v>10.33</v>
       </c>
       <c r="F7">
-        <v>10.31</v>
+        <v>7.8769999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" t="str">
+        <f>Flows!A8</f>
+        <v>QBLR</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
       <c r="C8">
-        <v>106.9</v>
+        <v>106.3</v>
       </c>
       <c r="D8">
         <v>100.8</v>
@@ -1358,18 +1226,19 @@
         <v>103.5</v>
       </c>
       <c r="F8">
-        <v>106.3</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" t="str">
+        <f>Flows!A9</f>
+        <v>WP</v>
       </c>
       <c r="B9">
         <v>2.4470000000000001</v>
       </c>
       <c r="C9">
-        <v>2.4470000000000001</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="D9">
         <v>2.2639999999999998</v>
@@ -1378,12 +1247,13 @@
         <v>2.5539999999999998</v>
       </c>
       <c r="F9">
-        <v>2.6190000000000002</v>
+        <v>2.4470000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" t="str">
+        <f>Flows!A10</f>
+        <v>WN</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -1402,19 +1272,20 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" t="str">
+        <f>Flows!A11</f>
+        <v>QCND</v>
       </c>
       <c r="B11">
         <f>B4-B5</f>
         <v>10.006</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:F11" si="0">C4-C5</f>
-        <v>12.116</v>
+        <f>C4-C5</f>
+        <v>10.75</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D11:E11" si="0">D4-D5</f>
         <v>10.379000000000001</v>
       </c>
       <c r="E11">
@@ -1422,8 +1293,8 @@
         <v>13.25</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>10.75</v>
+        <f>F4-F5</f>
+        <v>12.116</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1307,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1449,21 +1320,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1472,12 +1343,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1486,12 +1357,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1500,12 +1371,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1514,12 +1385,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1528,12 +1399,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1542,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1567,21 +1438,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1608,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1622,24 +1493,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1650,10 +1521,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>6.51</v>
@@ -1664,10 +1535,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
         <v>151.75</v>
@@ -1678,10 +1549,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>2.56</v>
@@ -1692,10 +1563,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>2.11</v>
@@ -1706,10 +1577,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>10.75</v>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6B368C-440F-4F53-8795-DBACAE5638F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF3B64-ECA6-47E6-86AE-6A085DFA0962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1800" windowWidth="21600" windowHeight="13335" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="375" windowWidth="20475" windowHeight="12525" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>key</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>PCND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -800,6 +806,11 @@
         <v>63</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1050,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1062,7 +1073,7 @@
     <col min="2" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,10 +1090,13 @@
         <v>72</v>
       </c>
       <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>Flows!A2</f>
         <v>B1</v>
@@ -1100,10 +1114,13 @@
         <v>87.64</v>
       </c>
       <c r="F2">
+        <v>108</v>
+      </c>
+      <c r="G2">
         <v>83.57</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>Flows!A3</f>
         <v>B2</v>
@@ -1121,10 +1138,13 @@
         <v>21.92</v>
       </c>
       <c r="F3">
+        <v>41.99</v>
+      </c>
+      <c r="G3">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>Flows!A4</f>
         <v>B3</v>
@@ -1142,10 +1162,13 @@
         <v>19.59</v>
       </c>
       <c r="F4">
+        <v>38.68</v>
+      </c>
+      <c r="G4">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f>Flows!A5</f>
         <v>B4</v>
@@ -1163,10 +1186,13 @@
         <v>6.34</v>
       </c>
       <c r="F5">
+        <v>9.99</v>
+      </c>
+      <c r="G5">
         <v>5.7839999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f>Flows!A6</f>
         <v>B5</v>
@@ -1184,10 +1210,13 @@
         <v>8.5280000000000005</v>
       </c>
       <c r="F6">
+        <v>12.62</v>
+      </c>
+      <c r="G6">
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f>Flows!A7</f>
         <v>B6</v>
@@ -1205,10 +1234,13 @@
         <v>10.33</v>
       </c>
       <c r="F7">
+        <v>15.49</v>
+      </c>
+      <c r="G7">
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="str">
         <f>Flows!A8</f>
         <v>QBLR</v>
@@ -1226,10 +1258,13 @@
         <v>103.5</v>
       </c>
       <c r="F8">
+        <v>120.2</v>
+      </c>
+      <c r="G8">
         <v>106.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="str">
         <f>Flows!A9</f>
         <v>WP</v>
@@ -1247,10 +1282,13 @@
         <v>2.5539999999999998</v>
       </c>
       <c r="F9">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="G9">
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f>Flows!A10</f>
         <v>WN</v>
@@ -1270,8 +1308,11 @@
       <c r="F10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f>Flows!A11</f>
         <v>QCND</v>
@@ -1281,11 +1322,11 @@
         <v>10.006</v>
       </c>
       <c r="C11">
-        <f>C4-C5</f>
+        <f t="shared" ref="C11:G11" si="0">C4-C5</f>
         <v>10.75</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:E11" si="0">D4-D5</f>
+        <f t="shared" si="0"/>
         <v>10.379000000000001</v>
       </c>
       <c r="E11">
@@ -1293,7 +1334,11 @@
         <v>13.25</v>
       </c>
       <c r="F11">
-        <f>F4-F5</f>
+        <f t="shared" si="0"/>
+        <v>28.689999999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
         <v>12.116</v>
       </c>
     </row>

--- a/Examples/rorc/rorc_model.xlsx
+++ b/Examples/rorc/rorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF3B64-ECA6-47E6-86AE-6A085DFA0962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906B3BF-2FF7-49D8-BA5D-18A2834669C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="375" windowWidth="20475" windowHeight="12525" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="825" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>key</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>(kW)</t>
-  </si>
-  <si>
-    <t>flow</t>
   </si>
   <si>
     <t>QCND</t>
@@ -277,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -709,7 +706,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -727,27 +724,27 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -755,13 +752,13 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -769,21 +766,21 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -791,24 +788,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -820,25 +817,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -846,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -854,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -862,7 +859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -870,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -878,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -886,15 +883,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -902,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -910,9 +907,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -928,115 +925,115 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1051,7 +1048,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1063,40 +1060,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Flows!A2</f>
         <v>B1</v>
@@ -1120,7 +1117,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Flows!A3</f>
         <v>B2</v>
@@ -1144,7 +1141,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Flows!A4</f>
         <v>B3</v>
@@ -1168,7 +1165,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Flows!A5</f>
         <v>B4</v>
@@ -1192,7 +1189,7 @@
         <v>5.7839999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Flows!A6</f>
         <v>B5</v>
@@ -1216,7 +1213,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Flows!A7</f>
         <v>B6</v>
@@ -1240,7 +1237,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Flows!A8</f>
         <v>QBLR</v>
@@ -1264,7 +1261,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Flows!A9</f>
         <v>WP</v>
@@ -1288,7 +1285,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Flows!A10</f>
         <v>WN</v>
@@ -1312,7 +1309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Flows!A11</f>
         <v>QCND</v>
@@ -1355,7 +1352,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -1363,7 +1360,7 @@
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1419,7 +1416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1430,10 +1427,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1444,10 +1441,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1471,33 +1468,33 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1525,10 +1522,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1536,26 +1533,26 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1564,12 +1561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>6.51</v>
@@ -1578,12 +1575,12 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>151.75</v>
@@ -1592,12 +1589,12 @@
         <v>151.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>2.56</v>
@@ -1606,12 +1603,12 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>2.11</v>
@@ -1620,12 +1617,12 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>10.75</v>
